--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.788950666666667</v>
+        <v>9.665045333333333</v>
       </c>
       <c r="H2">
-        <v>26.366852</v>
+        <v>28.995136</v>
       </c>
       <c r="I2">
-        <v>0.01314873532998867</v>
+        <v>0.01442873323912627</v>
       </c>
       <c r="J2">
-        <v>0.01314873532998867</v>
+        <v>0.01442873323912626</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.048438999999999</v>
+        <v>3.867218333333334</v>
       </c>
       <c r="N2">
-        <v>12.145317</v>
+        <v>11.601655</v>
       </c>
       <c r="O2">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="P2">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="Q2">
-        <v>35.58153064800933</v>
+        <v>37.37684050556445</v>
       </c>
       <c r="R2">
-        <v>320.233775832084</v>
+        <v>336.39156455008</v>
       </c>
       <c r="S2">
-        <v>0.002239581602712613</v>
+        <v>0.002259760352939133</v>
       </c>
       <c r="T2">
-        <v>0.002239581602712614</v>
+        <v>0.002259760352939133</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.788950666666667</v>
+        <v>9.665045333333333</v>
       </c>
       <c r="H3">
-        <v>26.366852</v>
+        <v>28.995136</v>
       </c>
       <c r="I3">
-        <v>0.01314873532998867</v>
+        <v>0.01442873323912627</v>
       </c>
       <c r="J3">
-        <v>0.01314873532998867</v>
+        <v>0.01442873323912626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>11.27122833333333</v>
       </c>
       <c r="N3">
-        <v>33.81368499999999</v>
+        <v>33.813685</v>
       </c>
       <c r="O3">
-        <v>0.4742054659960561</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="P3">
-        <v>0.4742054659960562</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="Q3">
-        <v>99.06226977440221</v>
+        <v>108.9369328040178</v>
       </c>
       <c r="R3">
-        <v>891.5604279696198</v>
+        <v>980.4323952361599</v>
       </c>
       <c r="S3">
-        <v>0.006235202164416083</v>
+        <v>0.00658620039552742</v>
       </c>
       <c r="T3">
-        <v>0.006235202164416084</v>
+        <v>0.006586200395527418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.788950666666667</v>
+        <v>9.665045333333333</v>
       </c>
       <c r="H4">
-        <v>26.366852</v>
+        <v>28.995136</v>
       </c>
       <c r="I4">
-        <v>0.01314873532998867</v>
+        <v>0.01442873323912627</v>
       </c>
       <c r="J4">
-        <v>0.01314873532998867</v>
+        <v>0.01442873323912626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.219226333333334</v>
+        <v>5.654344666666667</v>
       </c>
       <c r="N4">
-        <v>9.657679000000002</v>
+        <v>16.963034</v>
       </c>
       <c r="O4">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="P4">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="Q4">
-        <v>28.29362142850089</v>
+        <v>54.64949753362489</v>
       </c>
       <c r="R4">
-        <v>254.6425928565081</v>
+        <v>491.845477802624</v>
       </c>
       <c r="S4">
-        <v>0.00178086419755894</v>
+        <v>0.003304045129661114</v>
       </c>
       <c r="T4">
-        <v>0.001780864197558941</v>
+        <v>0.003304045129661114</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.788950666666667</v>
+        <v>9.665045333333333</v>
       </c>
       <c r="H5">
-        <v>26.366852</v>
+        <v>28.995136</v>
       </c>
       <c r="I5">
-        <v>0.01314873532998867</v>
+        <v>0.01442873323912627</v>
       </c>
       <c r="J5">
-        <v>0.01314873532998867</v>
+        <v>0.01442873323912626</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9942166666666665</v>
+        <v>0.819389</v>
       </c>
       <c r="N5">
-        <v>2.98265</v>
+        <v>2.458167</v>
       </c>
       <c r="O5">
-        <v>0.04182889067409059</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="P5">
-        <v>0.0418288906740906</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="Q5">
-        <v>8.738121235311111</v>
+        <v>7.919431830634667</v>
       </c>
       <c r="R5">
-        <v>78.6430911178</v>
+        <v>71.27488647571199</v>
       </c>
       <c r="S5">
-        <v>0.0005499970126206484</v>
+        <v>0.0004787996477660584</v>
       </c>
       <c r="T5">
-        <v>0.0005499970126206487</v>
+        <v>0.0004787996477660583</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.788950666666667</v>
+        <v>9.665045333333333</v>
       </c>
       <c r="H6">
-        <v>26.366852</v>
+        <v>28.995136</v>
       </c>
       <c r="I6">
-        <v>0.01314873532998867</v>
+        <v>0.01442873323912627</v>
       </c>
       <c r="J6">
-        <v>0.01314873532998867</v>
+        <v>0.01442873323912626</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.235549333333334</v>
+        <v>3.080288333333333</v>
       </c>
       <c r="N6">
-        <v>12.706648</v>
+        <v>9.240864999999999</v>
       </c>
       <c r="O6">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="P6">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="Q6">
-        <v>37.22603413689956</v>
+        <v>29.77112638140444</v>
       </c>
       <c r="R6">
-        <v>335.0343072320961</v>
+        <v>267.94013743264</v>
       </c>
       <c r="S6">
-        <v>0.002343090352680382</v>
+        <v>0.001799927713232541</v>
       </c>
       <c r="T6">
-        <v>0.002343090352680382</v>
+        <v>0.001799927713232541</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1971.783355</v>
       </c>
       <c r="I7">
-        <v>0.983297416884355</v>
+        <v>0.981210642869356</v>
       </c>
       <c r="J7">
-        <v>0.983297416884355</v>
+        <v>0.9812106428693558</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.048438999999999</v>
+        <v>3.867218333333334</v>
       </c>
       <c r="N7">
-        <v>12.145317</v>
+        <v>11.601655</v>
       </c>
       <c r="O7">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="P7">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="Q7">
-        <v>2660.881544644281</v>
+        <v>2541.772246605836</v>
       </c>
       <c r="R7">
-        <v>23947.93390179853</v>
+        <v>22875.95021945253</v>
       </c>
       <c r="S7">
-        <v>0.1674818717984594</v>
+        <v>0.1536725970250427</v>
       </c>
       <c r="T7">
-        <v>0.1674818717984595</v>
+        <v>0.1536725970250427</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1971.783355</v>
       </c>
       <c r="I8">
-        <v>0.983297416884355</v>
+        <v>0.981210642869356</v>
       </c>
       <c r="J8">
-        <v>0.983297416884355</v>
+        <v>0.9812106428693558</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>11.27122833333333</v>
       </c>
       <c r="N8">
-        <v>33.81368499999999</v>
+        <v>33.813685</v>
       </c>
       <c r="O8">
-        <v>0.4742054659960561</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="P8">
-        <v>0.4742054659960562</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="Q8">
-        <v>7408.140139357019</v>
+        <v>7408.14013935702</v>
       </c>
       <c r="R8">
         <v>66673.26125421317</v>
       </c>
       <c r="S8">
-        <v>0.4662850097863638</v>
+        <v>0.4478875461248184</v>
       </c>
       <c r="T8">
-        <v>0.4662850097863639</v>
+        <v>0.4478875461248183</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1971.783355</v>
       </c>
       <c r="I9">
-        <v>0.983297416884355</v>
+        <v>0.981210642869356</v>
       </c>
       <c r="J9">
-        <v>0.983297416884355</v>
+        <v>0.9812106428693558</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.219226333333334</v>
+        <v>5.654344666666667</v>
       </c>
       <c r="N9">
-        <v>9.657679000000002</v>
+        <v>16.963034</v>
       </c>
       <c r="O9">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="P9">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="Q9">
-        <v>2115.872300014783</v>
+        <v>3716.380899055453</v>
       </c>
       <c r="R9">
-        <v>19042.85070013305</v>
+        <v>33447.42809149907</v>
       </c>
       <c r="S9">
-        <v>0.1331777635897584</v>
+        <v>0.2246880715039447</v>
       </c>
       <c r="T9">
-        <v>0.1331777635897585</v>
+        <v>0.2246880715039447</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1971.783355</v>
       </c>
       <c r="I10">
-        <v>0.983297416884355</v>
+        <v>0.981210642869356</v>
       </c>
       <c r="J10">
-        <v>0.983297416884355</v>
+        <v>0.9812106428693558</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9942166666666665</v>
+        <v>0.819389</v>
       </c>
       <c r="N10">
-        <v>2.98265</v>
+        <v>2.458167</v>
       </c>
       <c r="O10">
-        <v>0.04182889067409059</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="P10">
-        <v>0.0418288906740906</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="Q10">
-        <v>653.4599581989721</v>
+        <v>538.5525304900317</v>
       </c>
       <c r="R10">
-        <v>5881.139623790749</v>
+        <v>4846.972774410285</v>
       </c>
       <c r="S10">
-        <v>0.04113024015097137</v>
+        <v>0.03256026030865924</v>
       </c>
       <c r="T10">
-        <v>0.04113024015097137</v>
+        <v>0.03256026030865924</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1971.783355</v>
       </c>
       <c r="I11">
-        <v>0.983297416884355</v>
+        <v>0.981210642869356</v>
       </c>
       <c r="J11">
-        <v>0.983297416884355</v>
+        <v>0.9812106428693558</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.235549333333334</v>
+        <v>3.080288333333333</v>
       </c>
       <c r="N11">
-        <v>12.706648</v>
+        <v>9.240864999999999</v>
       </c>
       <c r="O11">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="P11">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="Q11">
-        <v>2783.861891582671</v>
+        <v>2024.553754755786</v>
       </c>
       <c r="R11">
-        <v>25054.75702424404</v>
+        <v>18220.98379280208</v>
       </c>
       <c r="S11">
-        <v>0.1752225315588018</v>
+        <v>0.122402167906891</v>
       </c>
       <c r="T11">
-        <v>0.1752225315588018</v>
+        <v>0.1224021679068909</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2157786666666667</v>
+        <v>1.484688666666667</v>
       </c>
       <c r="H12">
-        <v>0.647336</v>
+        <v>4.454066</v>
       </c>
       <c r="I12">
-        <v>0.0003228163048654251</v>
+        <v>0.002216459000001317</v>
       </c>
       <c r="J12">
-        <v>0.0003228163048654251</v>
+        <v>0.002216459000001316</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.048438999999999</v>
+        <v>3.867218333333334</v>
       </c>
       <c r="N12">
-        <v>12.145317</v>
+        <v>11.601655</v>
       </c>
       <c r="O12">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="P12">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="Q12">
-        <v>0.8735667695013332</v>
+        <v>5.741615231025556</v>
       </c>
       <c r="R12">
-        <v>7.862100925511999</v>
+        <v>51.67453707923001</v>
       </c>
       <c r="S12">
-        <v>5.498425812734763E-05</v>
+        <v>0.0003471313863185258</v>
       </c>
       <c r="T12">
-        <v>5.498425812734765E-05</v>
+        <v>0.0003471313863185257</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2157786666666667</v>
+        <v>1.484688666666667</v>
       </c>
       <c r="H13">
-        <v>0.647336</v>
+        <v>4.454066</v>
       </c>
       <c r="I13">
-        <v>0.0003228163048654251</v>
+        <v>0.002216459000001317</v>
       </c>
       <c r="J13">
-        <v>0.0003228163048654251</v>
+        <v>0.002216459000001316</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>11.27122833333333</v>
       </c>
       <c r="N13">
-        <v>33.81368499999999</v>
+        <v>33.813685</v>
       </c>
       <c r="O13">
-        <v>0.4742054659960561</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="P13">
-        <v>0.4742054659960562</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="Q13">
-        <v>2.432090621462222</v>
+        <v>16.73426496591222</v>
       </c>
       <c r="R13">
-        <v>21.88881559316</v>
+        <v>150.60838469321</v>
       </c>
       <c r="S13">
-        <v>0.0001530812562798338</v>
+        <v>0.001011734218142837</v>
       </c>
       <c r="T13">
-        <v>0.0001530812562798339</v>
+        <v>0.001011734218142837</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2157786666666667</v>
+        <v>1.484688666666667</v>
       </c>
       <c r="H14">
-        <v>0.647336</v>
+        <v>4.454066</v>
       </c>
       <c r="I14">
-        <v>0.0003228163048654251</v>
+        <v>0.002216459000001317</v>
       </c>
       <c r="J14">
-        <v>0.0003228163048654251</v>
+        <v>0.002216459000001316</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.219226333333334</v>
+        <v>5.654344666666667</v>
       </c>
       <c r="N14">
-        <v>9.657679000000002</v>
+        <v>16.963034</v>
       </c>
       <c r="O14">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="P14">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="Q14">
-        <v>0.694640365904889</v>
+        <v>8.394941444027111</v>
       </c>
       <c r="R14">
-        <v>6.251763293144001</v>
+        <v>75.554472996244</v>
       </c>
       <c r="S14">
-        <v>4.372222767401334E-05</v>
+        <v>0.0005075484065496076</v>
       </c>
       <c r="T14">
-        <v>4.372222767401335E-05</v>
+        <v>0.0005075484065496075</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2157786666666667</v>
+        <v>1.484688666666667</v>
       </c>
       <c r="H15">
-        <v>0.647336</v>
+        <v>4.454066</v>
       </c>
       <c r="I15">
-        <v>0.0003228163048654251</v>
+        <v>0.002216459000001317</v>
       </c>
       <c r="J15">
-        <v>0.0003228163048654251</v>
+        <v>0.002216459000001316</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9942166666666665</v>
+        <v>0.819389</v>
       </c>
       <c r="N15">
-        <v>2.98265</v>
+        <v>2.458167</v>
       </c>
       <c r="O15">
-        <v>0.04182889067409059</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="P15">
-        <v>0.0418288906740906</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="Q15">
-        <v>0.2145307467111111</v>
+        <v>1.216537561891333</v>
       </c>
       <c r="R15">
-        <v>1.9307767204</v>
+        <v>10.948838057022</v>
       </c>
       <c r="S15">
-        <v>1.350304792402977E-05</v>
+        <v>7.35504476311743E-05</v>
       </c>
       <c r="T15">
-        <v>1.350304792402977E-05</v>
+        <v>7.355044763117429E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2157786666666667</v>
+        <v>1.484688666666667</v>
       </c>
       <c r="H16">
-        <v>0.647336</v>
+        <v>4.454066</v>
       </c>
       <c r="I16">
-        <v>0.0003228163048654251</v>
+        <v>0.002216459000001317</v>
       </c>
       <c r="J16">
-        <v>0.0003228163048654251</v>
+        <v>0.002216459000001316</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.235549333333334</v>
+        <v>3.080288333333333</v>
       </c>
       <c r="N16">
-        <v>12.706648</v>
+        <v>9.240864999999999</v>
       </c>
       <c r="O16">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="P16">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="Q16">
-        <v>0.9139411877475557</v>
+        <v>4.573269178565556</v>
       </c>
       <c r="R16">
-        <v>8.225470689728001</v>
+        <v>41.15942260709</v>
       </c>
       <c r="S16">
-        <v>5.752551486020051E-05</v>
+        <v>0.0002764945413591719</v>
       </c>
       <c r="T16">
-        <v>5.752551486020051E-05</v>
+        <v>0.0002764945413591718</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.317353333333333</v>
+        <v>0.5808313333333334</v>
       </c>
       <c r="H17">
-        <v>3.95206</v>
+        <v>1.742494</v>
       </c>
       <c r="I17">
-        <v>0.001970830304210568</v>
+        <v>0.0008671103007338225</v>
       </c>
       <c r="J17">
-        <v>0.001970830304210568</v>
+        <v>0.0008671103007338224</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.048438999999999</v>
+        <v>3.867218333333334</v>
       </c>
       <c r="N17">
-        <v>12.145317</v>
+        <v>11.601655</v>
       </c>
       <c r="O17">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="P17">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="Q17">
-        <v>5.333224611446666</v>
+        <v>2.246201580841111</v>
       </c>
       <c r="R17">
-        <v>47.99902150302</v>
+        <v>20.21581422757</v>
       </c>
       <c r="S17">
-        <v>0.0003356851575916765</v>
+        <v>0.0001358027379638544</v>
       </c>
       <c r="T17">
-        <v>0.0003356851575916765</v>
+        <v>0.0001358027379638544</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.317353333333333</v>
+        <v>0.5808313333333334</v>
       </c>
       <c r="H18">
-        <v>3.95206</v>
+        <v>1.742494</v>
       </c>
       <c r="I18">
-        <v>0.001970830304210568</v>
+        <v>0.0008671103007338225</v>
       </c>
       <c r="J18">
-        <v>0.001970830304210568</v>
+        <v>0.0008671103007338224</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>11.27122833333333</v>
       </c>
       <c r="N18">
-        <v>33.81368499999999</v>
+        <v>33.813685</v>
       </c>
       <c r="O18">
-        <v>0.4742054659960561</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="P18">
-        <v>0.4742054659960562</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="Q18">
-        <v>14.84819021567777</v>
+        <v>6.546682581154445</v>
       </c>
       <c r="R18">
-        <v>133.6337119411</v>
+        <v>58.92014323039</v>
       </c>
       <c r="S18">
-        <v>0.0009345785028073214</v>
+        <v>0.0003958048229883852</v>
       </c>
       <c r="T18">
-        <v>0.0009345785028073213</v>
+        <v>0.0003958048229883852</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.317353333333333</v>
+        <v>0.5808313333333334</v>
       </c>
       <c r="H19">
-        <v>3.95206</v>
+        <v>1.742494</v>
       </c>
       <c r="I19">
-        <v>0.001970830304210568</v>
+        <v>0.0008671103007338225</v>
       </c>
       <c r="J19">
-        <v>0.001970830304210568</v>
+        <v>0.0008671103007338224</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.219226333333334</v>
+        <v>5.654344666666667</v>
       </c>
       <c r="N19">
-        <v>9.657679000000002</v>
+        <v>16.963034</v>
       </c>
       <c r="O19">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="P19">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="Q19">
-        <v>4.240858540971112</v>
+        <v>3.284220551866222</v>
       </c>
       <c r="R19">
-        <v>38.16772686874</v>
+        <v>29.557984966796</v>
       </c>
       <c r="S19">
-        <v>0.0002669291791300981</v>
+        <v>0.0001985601589923122</v>
       </c>
       <c r="T19">
-        <v>0.0002669291791300981</v>
+        <v>0.0001985601589923121</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.317353333333333</v>
+        <v>0.5808313333333334</v>
       </c>
       <c r="H20">
-        <v>3.95206</v>
+        <v>1.742494</v>
       </c>
       <c r="I20">
-        <v>0.001970830304210568</v>
+        <v>0.0008671103007338225</v>
       </c>
       <c r="J20">
-        <v>0.001970830304210568</v>
+        <v>0.0008671103007338224</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9942166666666665</v>
+        <v>0.819389</v>
       </c>
       <c r="N20">
-        <v>2.98265</v>
+        <v>2.458167</v>
       </c>
       <c r="O20">
-        <v>0.04182889067409059</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="P20">
-        <v>0.0418288906740906</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="Q20">
-        <v>1.309734639888889</v>
+        <v>0.4759268053886667</v>
       </c>
       <c r="R20">
-        <v>11.787611759</v>
+        <v>4.283341248498</v>
       </c>
       <c r="S20">
-        <v>8.243764533200854E-05</v>
+        <v>2.877398172695138E-05</v>
       </c>
       <c r="T20">
-        <v>8.243764533200854E-05</v>
+        <v>2.877398172695137E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.317353333333333</v>
+        <v>0.5808313333333334</v>
       </c>
       <c r="H21">
-        <v>3.95206</v>
+        <v>1.742494</v>
       </c>
       <c r="I21">
-        <v>0.001970830304210568</v>
+        <v>0.0008671103007338225</v>
       </c>
       <c r="J21">
-        <v>0.001970830304210568</v>
+        <v>0.0008671103007338224</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.235549333333334</v>
+        <v>3.080288333333333</v>
       </c>
       <c r="N21">
-        <v>12.706648</v>
+        <v>9.240864999999999</v>
       </c>
       <c r="O21">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="P21">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="Q21">
-        <v>5.579715032764446</v>
+        <v>1.789127979701111</v>
       </c>
       <c r="R21">
-        <v>50.21743529488</v>
+        <v>16.10215181731</v>
       </c>
       <c r="S21">
-        <v>0.0003511998193494631</v>
+        <v>0.0001081685990623194</v>
       </c>
       <c r="T21">
-        <v>0.000351199819349463</v>
+        <v>0.0001081685990623194</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8423506666666668</v>
+        <v>0.8554313333333333</v>
       </c>
       <c r="H22">
-        <v>2.527052</v>
+        <v>2.566294</v>
       </c>
       <c r="I22">
-        <v>0.001260201176580296</v>
+        <v>0.001277054590782754</v>
       </c>
       <c r="J22">
-        <v>0.001260201176580296</v>
+        <v>0.001277054590782754</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.048438999999999</v>
+        <v>3.867218333333334</v>
       </c>
       <c r="N22">
-        <v>12.145317</v>
+        <v>11.601655</v>
       </c>
       <c r="O22">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="P22">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="Q22">
-        <v>3.410205290609333</v>
+        <v>3.308139735174445</v>
       </c>
       <c r="R22">
-        <v>30.691847615484</v>
+        <v>29.77325761657</v>
       </c>
       <c r="S22">
-        <v>0.0002146459944591837</v>
+        <v>0.0002000062850260671</v>
       </c>
       <c r="T22">
-        <v>0.0002146459944591837</v>
+        <v>0.0002000062850260671</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8423506666666668</v>
+        <v>0.8554313333333333</v>
       </c>
       <c r="H23">
-        <v>2.527052</v>
+        <v>2.566294</v>
       </c>
       <c r="I23">
-        <v>0.001260201176580296</v>
+        <v>0.001277054590782754</v>
       </c>
       <c r="J23">
-        <v>0.001260201176580296</v>
+        <v>0.001277054590782754</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,25 +1863,25 @@
         <v>11.27122833333333</v>
       </c>
       <c r="N23">
-        <v>33.81368499999999</v>
+        <v>33.813685</v>
       </c>
       <c r="O23">
-        <v>0.4742054659960561</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="P23">
-        <v>0.4742054659960562</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="Q23">
-        <v>9.494326700735556</v>
+        <v>9.641761881487778</v>
       </c>
       <c r="R23">
-        <v>85.44894030661999</v>
+        <v>86.77585693339</v>
       </c>
       <c r="S23">
-        <v>0.0005975942861890374</v>
+        <v>0.0005829297216553716</v>
       </c>
       <c r="T23">
-        <v>0.0005975942861890375</v>
+        <v>0.0005829297216553716</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8423506666666668</v>
+        <v>0.8554313333333333</v>
       </c>
       <c r="H24">
-        <v>2.527052</v>
+        <v>2.566294</v>
       </c>
       <c r="I24">
-        <v>0.001260201176580296</v>
+        <v>0.001277054590782754</v>
       </c>
       <c r="J24">
-        <v>0.001260201176580296</v>
+        <v>0.001277054590782754</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.219226333333334</v>
+        <v>5.654344666666667</v>
       </c>
       <c r="N24">
-        <v>9.657679000000002</v>
+        <v>16.963034</v>
       </c>
       <c r="O24">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="P24">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="Q24">
-        <v>2.711717448034223</v>
+        <v>4.836903597332889</v>
       </c>
       <c r="R24">
-        <v>24.40545703230801</v>
+        <v>43.532132375996</v>
       </c>
       <c r="S24">
-        <v>0.0001706815979461528</v>
+        <v>0.0002924335720300998</v>
       </c>
       <c r="T24">
-        <v>0.0001706815979461529</v>
+        <v>0.0002924335720300998</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8423506666666668</v>
+        <v>0.8554313333333333</v>
       </c>
       <c r="H25">
-        <v>2.527052</v>
+        <v>2.566294</v>
       </c>
       <c r="I25">
-        <v>0.001260201176580296</v>
+        <v>0.001277054590782754</v>
       </c>
       <c r="J25">
-        <v>0.001260201176580296</v>
+        <v>0.001277054590782754</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9942166666666665</v>
+        <v>0.819389</v>
       </c>
       <c r="N25">
-        <v>2.98265</v>
+        <v>2.458167</v>
       </c>
       <c r="O25">
-        <v>0.04182889067409059</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="P25">
-        <v>0.0418288906740906</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="Q25">
-        <v>0.8374790719777778</v>
+        <v>0.7009310247886666</v>
       </c>
       <c r="R25">
-        <v>7.5373116478</v>
+        <v>6.308379223098</v>
       </c>
       <c r="S25">
-        <v>5.271281724253753E-05</v>
+        <v>4.237747542429699E-05</v>
       </c>
       <c r="T25">
-        <v>5.271281724253754E-05</v>
+        <v>4.237747542429699E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.8423506666666668</v>
+        <v>0.8554313333333333</v>
       </c>
       <c r="H26">
-        <v>2.527052</v>
+        <v>2.566294</v>
       </c>
       <c r="I26">
-        <v>0.001260201176580296</v>
+        <v>0.001277054590782754</v>
       </c>
       <c r="J26">
-        <v>0.001260201176580296</v>
+        <v>0.001277054590782754</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.235549333333334</v>
+        <v>3.080288333333333</v>
       </c>
       <c r="N26">
-        <v>12.706648</v>
+        <v>9.240864999999999</v>
       </c>
       <c r="O26">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="P26">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="Q26">
-        <v>3.56781780463289</v>
+        <v>2.634975156034444</v>
       </c>
       <c r="R26">
-        <v>32.11036024169601</v>
+        <v>23.71477640431</v>
       </c>
       <c r="S26">
-        <v>0.0002245664807433844</v>
+        <v>0.0001593075366469187</v>
       </c>
       <c r="T26">
-        <v>0.0002245664807433844</v>
+        <v>0.0001593075366469187</v>
       </c>
     </row>
   </sheetData>
